--- a/0_0_Data/2_Processed_Data/1_rt_GDP_series/yoy_rt_GDP_data.xlsx
+++ b/0_0_Data/2_Processed_Data/1_rt_GDP_series/yoy_rt_GDP_data.xlsx
@@ -380,13 +380,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CE36"/>
+  <dimension ref="A1:CF36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:83">
+    <row r="1" spans="1:84">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -636,18 +636,21 @@
       <c r="CE1" s="2">
         <v>45891</v>
       </c>
+      <c r="CF1" s="2">
+        <v>45986</v>
+      </c>
     </row>
-    <row r="2" spans="1:83">
+    <row r="2" spans="1:84">
       <c r="A2" s="2">
         <v>33603</v>
       </c>
     </row>
-    <row r="3" spans="1:83">
+    <row r="3" spans="1:84">
       <c r="A3" s="2">
         <v>33969</v>
       </c>
     </row>
-    <row r="4" spans="1:83">
+    <row r="4" spans="1:84">
       <c r="A4" s="2">
         <v>34334</v>
       </c>
@@ -897,8 +900,11 @@
       <c r="CE4">
         <v>-0.9947480087648897</v>
       </c>
+      <c r="CF4">
+        <v>-0.9947480087648897</v>
+      </c>
     </row>
-    <row r="5" spans="1:83">
+    <row r="5" spans="1:84">
       <c r="A5" s="2">
         <v>34699</v>
       </c>
@@ -1148,8 +1154,11 @@
       <c r="CE5">
         <v>2.662919374670691</v>
       </c>
+      <c r="CF5">
+        <v>2.662919374670691</v>
+      </c>
     </row>
-    <row r="6" spans="1:83">
+    <row r="6" spans="1:84">
       <c r="A6" s="2">
         <v>35064</v>
       </c>
@@ -1399,8 +1408,11 @@
       <c r="CE6">
         <v>1.584368476884657</v>
       </c>
+      <c r="CF6">
+        <v>1.584368476884657</v>
+      </c>
     </row>
-    <row r="7" spans="1:83">
+    <row r="7" spans="1:84">
       <c r="A7" s="2">
         <v>35430</v>
       </c>
@@ -1650,8 +1662,11 @@
       <c r="CE7">
         <v>1.064474836623286</v>
       </c>
+      <c r="CF7">
+        <v>1.064474836623286</v>
+      </c>
     </row>
-    <row r="8" spans="1:83">
+    <row r="8" spans="1:84">
       <c r="A8" s="2">
         <v>35795</v>
       </c>
@@ -1901,8 +1916,11 @@
       <c r="CE8">
         <v>1.929871341910561</v>
       </c>
+      <c r="CF8">
+        <v>1.929871341910561</v>
+      </c>
     </row>
-    <row r="9" spans="1:83">
+    <row r="9" spans="1:84">
       <c r="A9" s="2">
         <v>36160</v>
       </c>
@@ -2152,8 +2170,11 @@
       <c r="CE9">
         <v>1.886792452830188</v>
       </c>
+      <c r="CF9">
+        <v>1.886792452830188</v>
+      </c>
     </row>
-    <row r="10" spans="1:83">
+    <row r="10" spans="1:84">
       <c r="A10" s="2">
         <v>36525</v>
       </c>
@@ -2403,8 +2424,11 @@
       <c r="CE10">
         <v>1.983439245137664</v>
       </c>
+      <c r="CF10">
+        <v>1.983439245137664</v>
+      </c>
     </row>
-    <row r="11" spans="1:83">
+    <row r="11" spans="1:84">
       <c r="A11" s="2">
         <v>36891</v>
       </c>
@@ -2654,8 +2678,11 @@
       <c r="CE11">
         <v>3.109264853977867</v>
       </c>
+      <c r="CF11">
+        <v>3.109264853977867</v>
+      </c>
     </row>
-    <row r="12" spans="1:83">
+    <row r="12" spans="1:84">
       <c r="A12" s="2">
         <v>37256</v>
       </c>
@@ -2905,8 +2932,11 @@
       <c r="CE12">
         <v>1.76718349407885</v>
       </c>
+      <c r="CF12">
+        <v>1.76718349407885</v>
+      </c>
     </row>
-    <row r="13" spans="1:83">
+    <row r="13" spans="1:84">
       <c r="A13" s="2">
         <v>37621</v>
       </c>
@@ -3156,8 +3186,11 @@
       <c r="CE13">
         <v>-0.2039408571514079</v>
       </c>
+      <c r="CF13">
+        <v>-0.2039408571514079</v>
+      </c>
     </row>
-    <row r="14" spans="1:83">
+    <row r="14" spans="1:84">
       <c r="A14" s="2">
         <v>37986</v>
       </c>
@@ -3407,8 +3440,11 @@
       <c r="CE14">
         <v>-0.5379413974455072</v>
       </c>
+      <c r="CF14">
+        <v>-0.5379413974455072</v>
+      </c>
     </row>
-    <row r="15" spans="1:83">
+    <row r="15" spans="1:84">
       <c r="A15" s="2">
         <v>38352</v>
       </c>
@@ -3658,8 +3694,11 @@
       <c r="CE15">
         <v>0.6949480299733857</v>
       </c>
+      <c r="CF15">
+        <v>0.6949480299733857</v>
+      </c>
     </row>
-    <row r="16" spans="1:83">
+    <row r="16" spans="1:84">
       <c r="A16" s="2">
         <v>38717</v>
       </c>
@@ -3900,8 +3939,11 @@
       <c r="CE16">
         <v>1.056232371121646</v>
       </c>
+      <c r="CF16">
+        <v>1.056232371121646</v>
+      </c>
     </row>
-    <row r="17" spans="1:83">
+    <row r="17" spans="1:84">
       <c r="A17" s="2">
         <v>39082</v>
       </c>
@@ -4130,8 +4172,11 @@
       <c r="CE17">
         <v>4.038244551339165</v>
       </c>
+      <c r="CF17">
+        <v>4.038244551339165</v>
+      </c>
     </row>
-    <row r="18" spans="1:83">
+    <row r="18" spans="1:84">
       <c r="A18" s="2">
         <v>39447</v>
       </c>
@@ -4348,8 +4393,11 @@
       <c r="CE18">
         <v>2.996746389634097</v>
       </c>
+      <c r="CF18">
+        <v>2.996746389634097</v>
+      </c>
     </row>
-    <row r="19" spans="1:83">
+    <row r="19" spans="1:84">
       <c r="A19" s="2">
         <v>39813</v>
       </c>
@@ -4554,8 +4602,11 @@
       <c r="CE19">
         <v>0.6207049434715062</v>
       </c>
+      <c r="CF19">
+        <v>0.6207049434715062</v>
+      </c>
     </row>
-    <row r="20" spans="1:83">
+    <row r="20" spans="1:84">
       <c r="A20" s="2">
         <v>40178</v>
       </c>
@@ -4748,8 +4799,11 @@
       <c r="CE20">
         <v>-5.499559374311513</v>
       </c>
+      <c r="CF20">
+        <v>-5.499559374311513</v>
+      </c>
     </row>
-    <row r="21" spans="1:83">
+    <row r="21" spans="1:84">
       <c r="A21" s="2">
         <v>40543</v>
       </c>
@@ -4930,8 +4984,11 @@
       <c r="CE21">
         <v>4.006994025936161</v>
       </c>
+      <c r="CF21">
+        <v>4.006994025936161</v>
+      </c>
     </row>
-    <row r="22" spans="1:83">
+    <row r="22" spans="1:84">
       <c r="A22" s="2">
         <v>40908</v>
       </c>
@@ -5100,8 +5157,11 @@
       <c r="CE22">
         <v>3.833006444382159</v>
       </c>
+      <c r="CF22">
+        <v>3.833006444382159</v>
+      </c>
     </row>
-    <row r="23" spans="1:83">
+    <row r="23" spans="1:84">
       <c r="A23" s="2">
         <v>41274</v>
       </c>
@@ -5258,8 +5318,11 @@
       <c r="CE23">
         <v>0.6530303848022223</v>
       </c>
+      <c r="CF23">
+        <v>0.6530303848022223</v>
+      </c>
     </row>
-    <row r="24" spans="1:83">
+    <row r="24" spans="1:84">
       <c r="A24" s="2">
         <v>41639</v>
       </c>
@@ -5404,8 +5467,11 @@
       <c r="CE24">
         <v>0.5093833780160928</v>
       </c>
+      <c r="CF24">
+        <v>0.5093833780160928</v>
+      </c>
     </row>
-    <row r="25" spans="1:83">
+    <row r="25" spans="1:84">
       <c r="A25" s="2">
         <v>42004</v>
       </c>
@@ -5538,8 +5604,11 @@
       <c r="CE25">
         <v>2.173913043478271</v>
       </c>
+      <c r="CF25">
+        <v>2.173913043478271</v>
+      </c>
     </row>
-    <row r="26" spans="1:83">
+    <row r="26" spans="1:84">
       <c r="A26" s="2">
         <v>42369</v>
       </c>
@@ -5660,8 +5729,11 @@
       <c r="CE26">
         <v>1.417569507897154</v>
       </c>
+      <c r="CF26">
+        <v>1.417569507897154</v>
+      </c>
     </row>
-    <row r="27" spans="1:83">
+    <row r="27" spans="1:84">
       <c r="A27" s="2">
         <v>42735</v>
       </c>
@@ -5770,8 +5842,11 @@
       <c r="CE27">
         <v>2.136532125205948</v>
       </c>
+      <c r="CF27">
+        <v>2.136532125205948</v>
+      </c>
     </row>
-    <row r="28" spans="1:83">
+    <row r="28" spans="1:84">
       <c r="A28" s="2">
         <v>43100</v>
       </c>
@@ -5868,8 +5943,11 @@
       <c r="CE28">
         <v>3.094914058168263</v>
       </c>
+      <c r="CF28">
+        <v>3.094914058168263</v>
+      </c>
     </row>
-    <row r="29" spans="1:83">
+    <row r="29" spans="1:84">
       <c r="A29" s="2">
         <v>43465</v>
       </c>
@@ -5954,8 +6032,11 @@
       <c r="CE29">
         <v>1.151420329536013</v>
       </c>
+      <c r="CF29">
+        <v>1.151420329536013</v>
+      </c>
     </row>
-    <row r="30" spans="1:83">
+    <row r="30" spans="1:84">
       <c r="A30" s="2">
         <v>43830</v>
       </c>
@@ -6028,8 +6109,11 @@
       <c r="CE30">
         <v>1.01022307078813</v>
       </c>
+      <c r="CF30">
+        <v>1.01022307078813</v>
+      </c>
     </row>
-    <row r="31" spans="1:83">
+    <row r="31" spans="1:84">
       <c r="A31" s="2">
         <v>44196</v>
       </c>
@@ -6090,8 +6174,11 @@
       <c r="CE31">
         <v>-4.486182557722218</v>
       </c>
+      <c r="CF31">
+        <v>-4.486182557722218</v>
+      </c>
     </row>
-    <row r="32" spans="1:83">
+    <row r="32" spans="1:84">
       <c r="A32" s="2">
         <v>44561</v>
       </c>
@@ -6140,8 +6227,11 @@
       <c r="CE32">
         <v>3.865230460921842</v>
       </c>
+      <c r="CF32">
+        <v>3.865230460921842</v>
+      </c>
     </row>
-    <row r="33" spans="1:83">
+    <row r="33" spans="1:84">
       <c r="A33" s="2">
         <v>44926</v>
       </c>
@@ -6178,8 +6268,11 @@
       <c r="CE33">
         <v>1.886018860188643</v>
       </c>
+      <c r="CF33">
+        <v>1.886018860188643</v>
+      </c>
     </row>
-    <row r="34" spans="1:83">
+    <row r="34" spans="1:84">
       <c r="A34" s="2">
         <v>45291</v>
       </c>
@@ -6204,8 +6297,11 @@
       <c r="CE34">
         <v>-0.6770031956444544</v>
       </c>
+      <c r="CF34">
+        <v>-0.6770031956444544</v>
+      </c>
     </row>
-    <row r="35" spans="1:83">
+    <row r="35" spans="1:84">
       <c r="A35" s="2">
         <v>45657</v>
       </c>
@@ -6218,8 +6314,11 @@
       <c r="CE35">
         <v>-0.4695059462808904</v>
       </c>
+      <c r="CF35">
+        <v>-0.4695059462808904</v>
+      </c>
     </row>
-    <row r="36" spans="1:83">
+    <row r="36" spans="1:84">
       <c r="A36" s="2">
         <v>46022</v>
       </c>
